--- a/results/FrequencyTables/26990633_Pol-A.xlsx
+++ b/results/FrequencyTables/26990633_Pol-A.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.00643440050219711</v>
       </c>
       <c r="C2">
-        <v>0.93</v>
+        <v>0.670590081607031</v>
       </c>
       <c r="D2">
-        <v>0.07</v>
+        <v>0.354048964218456</v>
       </c>
       <c r="E2">
-        <v>0.11</v>
+        <v>0.458254865034526</v>
       </c>
       <c r="F2">
-        <v>0.07</v>
+        <v>0.288292529817954</v>
       </c>
       <c r="G2">
-        <v>0.99</v>
+        <v>0.952762084118016</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.227244193345888</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.038135593220339</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.189579409918393</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0309165097300691</v>
       </c>
       <c r="L2">
-        <v>0.89</v>
+        <v>0.496704331450094</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.996390458254865</v>
       </c>
       <c r="N2">
-        <v>0.04</v>
+        <v>0.200878844946642</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0232266164469554</v>
       </c>
       <c r="P2">
-        <v>0.04</v>
+        <v>0.170590081607031</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00125549278091651</v>
       </c>
       <c r="R2">
-        <v>0.04</v>
+        <v>0.207470182046453</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00204017576898933</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.999529190207156</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00156936597614564</v>
       </c>
       <c r="V2">
-        <v>0.04</v>
+        <v>0.168392969240427</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0306026365348399</v>
       </c>
       <c r="X2">
-        <v>0.04</v>
+        <v>0.32391713747646</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0530445699937225</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0164783427495292</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.174042686754551</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00768989328311362</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0205586942875078</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00800376647834275</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0091023226616447</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00156936597614564</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00109855618330195</v>
       </c>
       <c r="K3">
-        <v>0.07</v>
+        <v>0.290646578782172</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>0.179535467671061</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000941619585687382</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>0.713747645951036</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.975360954174514</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000156936597614564</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.89</v>
+        <v>0.495919648462021</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.997802887633396</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.000313873195229127</v>
       </c>
       <c r="U3">
-        <v>0.89</v>
+        <v>0.491368487131199</v>
       </c>
       <c r="V3">
-        <v>0.89</v>
+        <v>0.506591337099812</v>
       </c>
       <c r="W3">
-        <v>0.04</v>
+        <v>0.18361581920904</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00109855618330195</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.11</v>
+        <v>0.462021343377276</v>
       </c>
       <c r="C4">
-        <v>0.07</v>
+        <v>0.308066541117389</v>
       </c>
       <c r="D4">
-        <v>0.89</v>
+        <v>0.46045197740113</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0397049591964846</v>
       </c>
       <c r="F4">
-        <v>0.89</v>
+        <v>0.519774011299435</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.0182046453232894</v>
       </c>
       <c r="H4">
-        <v>0.06</v>
+        <v>0.279190207156309</v>
       </c>
       <c r="I4">
-        <v>0.07</v>
+        <v>0.275266792215945</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0186754551161331</v>
       </c>
       <c r="K4">
-        <v>0.04</v>
+        <v>0.168549905838041</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0017263025737602</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000627746390458255</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000470809792843691</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00125549278091651</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0186754551161331</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.998744507219083</v>
       </c>
       <c r="R4">
-        <v>0.07</v>
+        <v>0.27510985561833</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000156936597614564</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.0505335844318895</v>
       </c>
       <c r="V4">
-        <v>0.07</v>
+        <v>0.313088512241055</v>
       </c>
       <c r="W4">
-        <v>0.07</v>
+        <v>0.29331450094162</v>
       </c>
       <c r="X4">
-        <v>0.96</v>
+        <v>0.657407407407407</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.471437539234149</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00266792215944758</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00784682988072819</v>
       </c>
       <c r="E5">
-        <v>0.89</v>
+        <v>0.491368487131199</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.170747018204645</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.019774011299435</v>
       </c>
       <c r="H5">
-        <v>0.89</v>
+        <v>0.481167608286252</v>
       </c>
       <c r="I5">
-        <v>0.93</v>
+        <v>0.684714375392341</v>
       </c>
       <c r="J5">
-        <v>0.96</v>
+        <v>0.790646578782172</v>
       </c>
       <c r="K5">
-        <v>0.89</v>
+        <v>0.505963590709353</v>
       </c>
       <c r="L5">
-        <v>0.07</v>
+        <v>0.321563088512241</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00204017576898933</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0773697426239799</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.96</v>
+        <v>0.810577526679222</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000156936597614564</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.11</v>
+        <v>0.456214689265537</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="W5">
-        <v>0.89</v>
+        <v>0.485247959824231</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00800376647834275</v>
       </c>
     </row>
   </sheetData>
